--- a/Datasett/Barnehager.xlsx
+++ b/Datasett/Barnehager.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\Project_Y\Datasett\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6A05BA-85C1-4175-A7DF-8786EEA94EBA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="barnehager-gjesdal-kommune" sheetId="1" r:id="rId1"/>
@@ -33,12 +34,6 @@
     <t>Koordinater i Euref89 sone 32 format</t>
   </si>
   <si>
-    <t>Lengdegrad</t>
-  </si>
-  <si>
-    <t>Breddegrad</t>
-  </si>
-  <si>
     <t>Navn</t>
   </si>
   <si>
@@ -511,12 +506,18 @@
   </si>
   <si>
     <t>Beskrivelse</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1361,31 +1362,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
-    <col min="12" max="12" width="42.33203125" customWidth="1"/>
-    <col min="13" max="13" width="41.109375" customWidth="1"/>
-    <col min="14" max="14" width="48.77734375" customWidth="1"/>
-    <col min="15" max="15" width="24.21875" customWidth="1"/>
-    <col min="16" max="16" width="36.21875" customWidth="1"/>
-    <col min="17" max="17" width="50.109375" customWidth="1"/>
-    <col min="18" max="18" width="47.88671875" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="42.28515625" customWidth="1"/>
+    <col min="13" max="13" width="41.140625" customWidth="1"/>
+    <col min="14" max="14" width="48.7109375" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" customWidth="1"/>
+    <col min="16" max="16" width="36.28515625" customWidth="1"/>
+    <col min="17" max="17" width="50.140625" customWidth="1"/>
+    <col min="18" max="18" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1396,74 +1397,74 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>143</v>
-      </c>
-      <c r="I2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L2" t="s">
-        <v>163</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>145</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -1472,45 +1473,45 @@
         <v>4330</v>
       </c>
       <c r="K4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
         <v>20</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>21</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>23</v>
       </c>
-      <c r="R4" t="s">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="S4" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1519,39 +1520,39 @@
         <v>4330</v>
       </c>
       <c r="K5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="S5" t="s">
         <v>32</v>
       </c>
-      <c r="R5" t="s">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="S5" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I6">
         <v>49</v>
@@ -1560,42 +1561,42 @@
         <v>4330</v>
       </c>
       <c r="K6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" t="s">
         <v>40</v>
       </c>
-      <c r="O6" t="s">
+      <c r="R6" t="s">
         <v>41</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="R6" t="s">
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="S6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I7">
         <v>33</v>
@@ -1604,39 +1605,39 @@
         <v>4330</v>
       </c>
       <c r="K7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
         <v>49</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>50</v>
       </c>
-      <c r="O7" t="s">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="P7" t="s">
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>55</v>
       </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I8">
         <v>30</v>
@@ -1645,42 +1646,42 @@
         <v>4330</v>
       </c>
       <c r="K8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" t="s">
         <v>58</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="R8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>64</v>
       </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>66</v>
-      </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1689,36 +1690,36 @@
         <v>4330</v>
       </c>
       <c r="K9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="s">
         <v>67</v>
       </c>
-      <c r="O9" t="s">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="P9" t="s">
+      <c r="D10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>71</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" t="s">
-        <v>74</v>
-      </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -1727,86 +1728,86 @@
         <v>4330</v>
       </c>
       <c r="K10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" t="s">
         <v>75</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>76</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>77</v>
       </c>
-      <c r="Q10" t="s">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="R10" t="s">
+      <c r="D11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>80</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>81</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>82</v>
       </c>
-      <c r="F11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" t="s">
-        <v>84</v>
-      </c>
       <c r="H11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J11">
         <v>4330</v>
       </c>
       <c r="K11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" t="s">
         <v>85</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>86</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>87</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="D12" t="s">
         <v>88</v>
       </c>
-      <c r="R11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>89</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>90</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>91</v>
       </c>
-      <c r="F12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" t="s">
-        <v>93</v>
-      </c>
       <c r="H12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I12">
         <v>98</v>
@@ -1815,42 +1816,42 @@
         <v>4330</v>
       </c>
       <c r="K12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" t="s">
         <v>94</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>95</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>96</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="D13" t="s">
         <v>97</v>
       </c>
-      <c r="R12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>98</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>99</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>100</v>
       </c>
-      <c r="F13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" t="s">
-        <v>102</v>
-      </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -1859,42 +1860,42 @@
         <v>4330</v>
       </c>
       <c r="K13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q13" t="s">
         <v>103</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>104</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="D14" t="s">
         <v>105</v>
       </c>
-      <c r="R13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>106</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>107</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>108</v>
       </c>
-      <c r="F14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" t="s">
-        <v>110</v>
-      </c>
       <c r="H14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I14">
         <v>67</v>
@@ -1903,39 +1904,39 @@
         <v>4330</v>
       </c>
       <c r="K14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" t="s">
         <v>111</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>112</v>
       </c>
-      <c r="O14" t="s">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>113</v>
       </c>
-      <c r="P14" t="s">
+      <c r="D15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>115</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>116</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>117</v>
       </c>
-      <c r="F15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" t="s">
-        <v>119</v>
-      </c>
       <c r="H15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I15">
         <v>54</v>
@@ -1944,33 +1945,33 @@
         <v>4333</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s">
+        <v>118</v>
+      </c>
+      <c r="P15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>120</v>
       </c>
-      <c r="P15" t="s">
+      <c r="D16" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>122</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>123</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>124</v>
       </c>
-      <c r="F16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" t="s">
-        <v>126</v>
-      </c>
       <c r="H16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I16">
         <v>4</v>
@@ -1979,33 +1980,33 @@
         <v>4335</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>127</v>
       </c>
-      <c r="P16" t="s">
+      <c r="D17" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>129</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>130</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>131</v>
       </c>
-      <c r="F17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" t="s">
-        <v>133</v>
-      </c>
       <c r="H17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I17">
         <v>270</v>
@@ -2014,39 +2015,39 @@
         <v>4335</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q17" t="s">
+        <v>132</v>
+      </c>
+      <c r="R17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
         <v>134</v>
       </c>
-      <c r="R17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>135</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>136</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>137</v>
       </c>
-      <c r="F18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" t="s">
-        <v>139</v>
-      </c>
       <c r="H18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I18">
         <v>96</v>
@@ -2055,21 +2056,21 @@
         <v>4330</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s">
+        <v>138</v>
+      </c>
+      <c r="O18" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" t="s">
         <v>140</v>
-      </c>
-      <c r="O18" t="s">
-        <v>141</v>
-      </c>
-      <c r="P18" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P5" r:id="rId1"/>
+    <hyperlink ref="P5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datasett/Barnehager.xlsx
+++ b/Datasett/Barnehager.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\Nye datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6A05BA-85C1-4175-A7DF-8786EEA94EBA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B7AF5F-3EDC-471C-813F-C5FE590FE432}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1371,6 +1371,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="42.28515625" customWidth="1"/>
     <col min="13" max="13" width="41.140625" customWidth="1"/>
